--- a/src/test/resources/state_counters_qa.xlsx
+++ b/src/test/resources/state_counters_qa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\smart-test-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9BAF2-A875-4402-AC3A-AE739346FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B619A3-7738-4707-A1FB-32A1D7F2294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FB94E9A-B967-4566-B292-1B46864D25D1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -72,6 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,12 +460,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.85546875"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625"/>
+    <col min="4" max="4" customWidth="true" width="25.42578125"/>
+    <col min="5" max="5" customWidth="true" width="17.140625"/>
+    <col min="6" max="6" customWidth="true" width="36.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,8 +512,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>9037</v>
+      <c r="B3" s="1" t="n">
+        <v>9038.0</v>
       </c>
       <c r="C3" s="1">
         <v>2230</v>
@@ -531,8 +532,8 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>1011</v>
+      <c r="B4" s="1" t="n">
+        <v>1016.0</v>
       </c>
       <c r="C4" s="1">
         <v>2230</v>
@@ -551,8 +552,8 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>9031</v>
+      <c r="B5" s="1" t="n">
+        <v>9033.0</v>
       </c>
       <c r="C5" s="1">
         <v>2230</v>

--- a/src/test/resources/state_counters_qa.xlsx
+++ b/src/test/resources/state_counters_qa.xlsx
@@ -553,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>9033.0</v>
+        <v>9036.0</v>
       </c>
       <c r="C5" s="1">
         <v>2230</v>
